--- a/abbsr_files/extracted_df2.xlsx
+++ b/abbsr_files/extracted_df2.xlsx
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2100</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2139</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2696</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2746</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2799</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>78899458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>80910548</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>82485588</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>80160695</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>82206663</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>83813608</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>29733</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>29937</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>29944</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>6.62%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>10.0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WA Remaining Grace Period (of Grace loans) (Years) -</t>
+          <t>WA Remaining Grace Period (of Grace loans) (Years)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>.42</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>54.7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>53.7</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>52.7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>74369</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>30120</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>0.04%</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -876,17 +876,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Total Ever since July 2021 Modified Loan Balance as of Modified Month</t>
+          <t>Total Ever since July 2021 Modified Loan Balance as of Mo d if i e d Month</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1809102</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>1764854</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1734733</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
